--- a/Symphony/2021/Others/Document/Expence/MC Expance February 2021.xlsx
+++ b/Symphony/2021/Others/Document/Expence/MC Expance February 2021.xlsx
@@ -18,9 +18,195 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kamrul Helmet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>Distributor:Symphony Mobile Hand Set</t>
+  </si>
+  <si>
+    <t>Month : Feb-2021</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Mobil</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Repair MC</t>
+  </si>
+  <si>
+    <t>Office Cost</t>
+  </si>
+  <si>
+    <t>Toll Cost</t>
+  </si>
+  <si>
+    <t>Road Cost</t>
+  </si>
+  <si>
+    <t>Mobile Care</t>
+  </si>
+  <si>
+    <t>Con vence</t>
+  </si>
+  <si>
+    <t>Daily Alaunce</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Elect Bill</t>
+  </si>
+  <si>
+    <t>Kurier Cost</t>
+  </si>
+  <si>
+    <t>1 % Less</t>
+  </si>
+  <si>
+    <t>House Rent</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>01.02.2021</t>
+  </si>
+  <si>
+    <t>02.02.2021</t>
+  </si>
+  <si>
+    <t>03.02.2021</t>
+  </si>
+  <si>
+    <t>04.02.2021</t>
+  </si>
+  <si>
+    <t>06.02.2021</t>
+  </si>
+  <si>
+    <t>07.02.2021</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>09.02.2021</t>
+  </si>
+  <si>
+    <t>10.02.2021</t>
+  </si>
+  <si>
+    <t>11.02.2021</t>
+  </si>
+  <si>
+    <t>13.02.2020</t>
+  </si>
+  <si>
+    <t>14.02.2021</t>
+  </si>
+  <si>
+    <t>15.02.2021</t>
+  </si>
+  <si>
+    <t>16.02.2021</t>
+  </si>
+  <si>
+    <t>17.02.2021</t>
+  </si>
+  <si>
+    <t>18.02.2021</t>
+  </si>
+  <si>
+    <t>20.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>21.02.2021</t>
+  </si>
+  <si>
+    <t>22.02.2021</t>
+  </si>
+  <si>
+    <t>23.02.2021</t>
+  </si>
+  <si>
+    <t>24.02.2021</t>
+  </si>
+  <si>
+    <t>25.02.2021</t>
+  </si>
+  <si>
+    <t>27.02.2021</t>
+  </si>
+  <si>
+    <t>28.02.2021</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +214,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -45,12 +314,520 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +843,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>553220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4514850" y="28576"/>
+          <a:ext cx="305570" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>553220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4514850" y="28576"/>
+          <a:ext cx="305570" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1204,1329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
+        <v>1900</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
+        <v>480</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25">
+        <v>250</v>
+      </c>
+      <c r="K6" s="24">
+        <v>480</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="26">
+        <v>20</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28">
+        <f t="shared" ref="S6:S36" si="0">SUM(B6:R6)</f>
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <v>530</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25">
+        <v>180</v>
+      </c>
+      <c r="K7" s="24">
+        <v>480</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28">
+        <f t="shared" si="0"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="29">
+        <v>500</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30">
+        <v>280</v>
+      </c>
+      <c r="F8" s="30">
+        <v>175</v>
+      </c>
+      <c r="G8" s="30">
+        <v>200</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31">
+        <v>210</v>
+      </c>
+      <c r="K8" s="30">
+        <v>480</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="28">
+        <f>SUM(B8:R8)</f>
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
+        <v>1950</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30">
+        <v>590</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31">
+        <v>190</v>
+      </c>
+      <c r="K9" s="30">
+        <v>480</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="28">
+        <f t="shared" si="0"/>
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30">
+        <v>300</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30">
+        <v>290</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30">
+        <v>210</v>
+      </c>
+      <c r="K10" s="30">
+        <v>480</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="32">
+        <v>20</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="28">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="29">
+        <v>800</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="30">
+        <v>145</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
+        <v>290</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30">
+        <v>160</v>
+      </c>
+      <c r="K11" s="30">
+        <v>480</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="28">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30">
+        <v>550</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30">
+        <v>170</v>
+      </c>
+      <c r="K12" s="30">
+        <v>480</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="32">
+        <v>20</v>
+      </c>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="28">
+        <f t="shared" si="0"/>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="29">
+        <v>500</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="30">
+        <v>60</v>
+      </c>
+      <c r="E13" s="30">
+        <v>50</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30">
+        <v>190</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30">
+        <v>160</v>
+      </c>
+      <c r="K13" s="30">
+        <v>480</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="32">
+        <v>20</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="28">
+        <f t="shared" si="0"/>
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
+        <v>210</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30">
+        <v>155</v>
+      </c>
+      <c r="K14" s="30">
+        <v>400</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="32">
+        <v>20</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="28">
+        <f t="shared" si="0"/>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="29">
+        <v>300</v>
+      </c>
+      <c r="C15" s="23">
+        <v>400</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30">
+        <v>110</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30">
+        <v>230</v>
+      </c>
+      <c r="K15" s="30">
+        <v>320</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="32">
+        <v>20</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="28">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1750</v>
+      </c>
+      <c r="C16" s="23">
+        <v>400</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30">
+        <v>840</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30">
+        <v>180</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30">
+        <v>230</v>
+      </c>
+      <c r="K16" s="30">
+        <v>480</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="32">
+        <v>50</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="34">
+        <v>50</v>
+      </c>
+      <c r="S16" s="28">
+        <f t="shared" si="0"/>
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1300</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30">
+        <v>180</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
+        <v>170</v>
+      </c>
+      <c r="K17" s="30">
+        <v>480</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="28">
+        <f t="shared" si="0"/>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23">
+        <v>740</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30">
+        <v>1090</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30">
+        <v>170</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30">
+        <v>180</v>
+      </c>
+      <c r="K18" s="30">
+        <v>480</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="32">
+        <v>20</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="28">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="29">
+        <v>800</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30">
+        <v>280</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30">
+        <v>150</v>
+      </c>
+      <c r="K19" s="30">
+        <v>480</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="37">
+        <v>20</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="28">
+        <f t="shared" si="0"/>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="29">
+        <v>500</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="30">
+        <v>200</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30">
+        <v>120</v>
+      </c>
+      <c r="K20" s="30">
+        <v>480</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="32">
+        <v>20</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="28">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="30">
+        <v>50</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30">
+        <v>110</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30">
+        <v>150</v>
+      </c>
+      <c r="K21" s="30">
+        <v>480</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="32">
+        <v>30</v>
+      </c>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="28">
+        <f t="shared" si="0"/>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30">
+        <v>180</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30">
+        <v>210</v>
+      </c>
+      <c r="K22" s="30">
+        <v>480</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="32">
+        <v>20</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="28">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="29">
+        <v>800</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
+        <v>310</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30">
+        <v>205</v>
+      </c>
+      <c r="K23" s="30">
+        <v>480</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="28">
+        <f t="shared" si="0"/>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="29">
+        <v>500</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="30">
+        <v>1250</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
+        <v>210</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30">
+        <v>210</v>
+      </c>
+      <c r="K24" s="30">
+        <v>480</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="28">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1300</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30">
+        <v>220</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30">
+        <v>290</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30">
+        <v>185</v>
+      </c>
+      <c r="K25" s="30">
+        <v>480</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="32">
+        <v>20</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="28">
+        <f t="shared" si="0"/>
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29">
+        <v>500</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
+        <v>200</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30">
+        <v>200</v>
+      </c>
+      <c r="K26" s="30">
+        <v>480</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="32">
+        <v>20</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="28">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="29">
+        <v>500</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30">
+        <v>170</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30">
+        <v>180</v>
+      </c>
+      <c r="K27" s="30">
+        <v>480</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="32">
+        <v>20</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="34">
+        <v>50</v>
+      </c>
+      <c r="S27" s="28">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1300</v>
+      </c>
+      <c r="C28" s="23">
+        <v>380</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30">
+        <v>110</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30">
+        <v>160</v>
+      </c>
+      <c r="K28" s="30">
+        <v>480</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="32">
+        <v>20</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="28">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="29">
+        <v>500</v>
+      </c>
+      <c r="C29" s="23">
+        <v>800</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30">
+        <v>310</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30">
+        <v>195</v>
+      </c>
+      <c r="K29" s="30">
+        <v>480</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30">
+        <v>692</v>
+      </c>
+      <c r="N29" s="32"/>
+      <c r="O29" s="30">
+        <v>2615</v>
+      </c>
+      <c r="P29" s="30">
+        <v>10000</v>
+      </c>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="28">
+        <f t="shared" si="0"/>
+        <v>15592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="45">
+        <f>SUM(B6:B36)</f>
+        <v>19150</v>
+      </c>
+      <c r="C37" s="46">
+        <f t="shared" ref="C37:R37" si="1">SUM(C6:C36)</f>
+        <v>2720</v>
+      </c>
+      <c r="D37" s="46">
+        <f t="shared" si="1"/>
+        <v>1505</v>
+      </c>
+      <c r="E37" s="46">
+        <f t="shared" si="1"/>
+        <v>6630</v>
+      </c>
+      <c r="F37" s="46">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G37" s="46">
+        <f>SUM(G6:G36)</f>
+        <v>6340</v>
+      </c>
+      <c r="H37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="46">
+        <f t="shared" si="1"/>
+        <v>4460</v>
+      </c>
+      <c r="K37" s="46">
+        <f t="shared" si="1"/>
+        <v>11280</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="46">
+        <f t="shared" si="1"/>
+        <v>692</v>
+      </c>
+      <c r="N37" s="47">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="O37" s="46">
+        <f t="shared" si="1"/>
+        <v>2615</v>
+      </c>
+      <c r="P37" s="46">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="Q37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="48">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S37" s="49">
+        <f>SUM(S6:S36)</f>
+        <v>66027</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>